--- a/表格创建模板.xlsx
+++ b/表格创建模板.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3387A5-6B63-4F45-9444-DC120FF3C123}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="828" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="800" windowWidth="14400" windowHeight="7360" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="合同房型价格表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
   <si>
     <t>最大容纳人数(有附加费)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -299,12 +300,19 @@
   <si>
     <t>餐费类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4n garden villa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -762,34 +770,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="8" customWidth="1"/>
     <col min="2" max="2" width="31.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="6" customWidth="1"/>
     <col min="9" max="9" width="9" style="10"/>
-    <col min="10" max="10" width="23.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.08203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="4" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="27.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="27.58203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="37.25" style="3" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" customWidth="1"/>
     <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
@@ -836,7 +845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -880,7 +889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
@@ -924,7 +933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
@@ -962,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>72</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1214,29 +1223,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="8" customWidth="1"/>
     <col min="2" max="2" width="31.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="23.08203125" style="8" customWidth="1"/>
     <col min="10" max="10" width="9" style="10"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
@@ -1326,7 +1336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>72</v>
       </c>
@@ -1384,7 +1394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
@@ -1413,7 +1423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1421,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>34</v>
@@ -1436,7 +1446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1469,7 +1479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1502,7 +1512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1513,7 +1523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1524,7 +1534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" s="6" t="s">
         <v>23</v>
       </c>
